--- a/biology/Microbiologie/Prorodontida/Prorodontida.xlsx
+++ b/biology/Microbiologie/Prorodontida/Prorodontida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Prorodontida sont un ordre de Ciliés de la classe des Gymnostomatea ou des Prostomatea selon la classification.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Limin Jiang et al., l'ordre des Prorodontida est caractérisé par la région buccale qui se situe apicalement ou légèrement subapicalement et par la présence à la fois d'une brosse et de toxicystes. Il contient neuf familles dont les Lagynidae Sola et al., 1990[note 1], dont le genre type est Lagynus Quennerstedt, 1867[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Limin Jiang et al., l'ordre des Prorodontida est caractérisé par la région buccale qui se situe apicalement ou légèrement subapicalement et par la présence à la fois d'une brosse et de toxicystes. Il contient neuf familles dont les Lagynidae Sola et al., 1990[note 1], dont le genre type est Lagynus Quennerstedt, 1867.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (23 septembre 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (23 septembre 2022) :
 Lagynidae Sola et al., 1990
-Selon l'AlgaeBase                                           (23 septembre 2022)[3] :
+Selon l'AlgaeBase                                           (23 septembre 2022) :
 Prorodontidae W.S.Kent, 1881
-Selon The Taxonomicon  (23 septembre 2022)[4] :
+Selon The Taxonomicon  (23 septembre 2022) :
 Balanionidae Small &amp; Lynn, 1985
 Colepidae Ehrenberg, 1838
 Holophryidae Perty, 1852
@@ -558,7 +574,7 @@
 Plagiocampidae Kahl, 1926
 Prorodontidae Kent, 1881
 Urotrichidae Small &amp; Lynn, 1985
-Selon le World Register of Marine Species                               (23 septembre 2023)[5] :
+Selon le World Register of Marine Species                               (23 septembre 2023) :
 Balanionidae Small &amp; Lynn, 1985
 Colepidae Ehrenberg, 1838
 Holophryidae Perty, 1852
@@ -593,9 +609,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Prorodontida Corliss, 1974[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Prorodontida Corliss, 1974.
 </t>
         </is>
       </c>
